--- a/Game-audio-plan.xlsx
+++ b/Game-audio-plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsouthwales-my.sharepoint.com/personal/30020447_students_southwales_ac_uk/Documents/USW Projects/Nameless Eldritch/Plan docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="477" documentId="8_{2BC13939-5300-4088-86F9-120A5E36BCB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B6F66D9-4923-4064-AEBC-E5C494675430}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{2BC13939-5300-4088-86F9-120A5E36BCB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1471B65-9AEC-44FE-B23A-464091601AE5}"/>
   <bookViews>
-    <workbookView xWindow="60795" yWindow="1125" windowWidth="21600" windowHeight="11325" xr2:uid="{03CF9C6D-E342-4C3D-B3AE-01200A409BDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03CF9C6D-E342-4C3D-B3AE-01200A409BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Sounds" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>Puzzle Completed</t>
   </si>
@@ -247,6 +247,48 @@
   </si>
   <si>
     <t>Final Boss?</t>
+  </si>
+  <si>
+    <t>Coin Sounds</t>
+  </si>
+  <si>
+    <t>Running Sounds</t>
+  </si>
+  <si>
+    <t>Picking Items</t>
+  </si>
+  <si>
+    <t>Walking Sounds</t>
+  </si>
+  <si>
+    <t>run1</t>
+  </si>
+  <si>
+    <t>run2</t>
+  </si>
+  <si>
+    <t>run3</t>
+  </si>
+  <si>
+    <t>Picking Sounds</t>
+  </si>
+  <si>
+    <t>pick1</t>
+  </si>
+  <si>
+    <t>pick2</t>
+  </si>
+  <si>
+    <t>pick3</t>
+  </si>
+  <si>
+    <t>coin1</t>
+  </si>
+  <si>
+    <t>coin2</t>
+  </si>
+  <si>
+    <t>coin3</t>
   </si>
 </sst>
 </file>
@@ -442,9 +484,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -454,12 +494,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -469,9 +505,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -518,18 +552,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,6 +566,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBFCBD2-679E-45BD-A3F2-A2BEB7311675}">
-  <dimension ref="B1:L59"/>
+  <dimension ref="B1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -876,15 +910,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="2:8" ht="33.6" x14ac:dyDescent="0.8">
       <c r="B3" s="4" t="s">
@@ -1045,7 +1079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1069,7 +1103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1085,7 +1119,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1093,7 +1127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1101,7 +1135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1109,7 +1143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1117,156 +1151,108 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="2:12" ht="25.2" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="18" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="31" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="2:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B32" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="31" spans="2:12" ht="24.6" x14ac:dyDescent="0.6">
-      <c r="B31" s="21" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="34" spans="2:12" ht="24.6" x14ac:dyDescent="0.6">
+      <c r="B34" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="s">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="2:12" ht="24.6" x14ac:dyDescent="0.6">
-      <c r="B32" s="23" t="s">
+      <c r="H34" s="26"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" ht="24.6" x14ac:dyDescent="0.6">
+      <c r="B35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="23" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>19</v>
+        <v>58</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -1275,22 +1261,22 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -1299,13 +1285,23 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -1313,13 +1309,23 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -1327,13 +1333,23 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -1341,10 +1357,10 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1355,141 +1371,243 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>35</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B46" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C46" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B44" s="7" t="s">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C47" s="21" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B46" s="10"/>
-      <c r="C46" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B47" s="11"/>
-      <c r="C47" s="25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B48" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B49" s="10"/>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B50" s="11"/>
+      <c r="C50" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B51" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B52" s="10"/>
+      <c r="C52" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="10"/>
-      <c r="C50" s="25" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B53" s="10"/>
+      <c r="C53" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B51" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="25" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B54" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B52" s="13"/>
-      <c r="C52" s="25" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B55" s="13"/>
+      <c r="C55" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B53" s="13"/>
-      <c r="C53" s="25" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B56" s="13"/>
+      <c r="C56" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B54" s="7"/>
-      <c r="C54" s="25" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B57" s="7"/>
+      <c r="C57" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B55" s="9" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B58" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C58" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B56" s="11"/>
-      <c r="C56" s="25" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B59" s="11"/>
+      <c r="C59" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B57" s="9" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C60" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B58" s="10"/>
-      <c r="C58" s="25" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B61" s="10"/>
+      <c r="C61" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B59" s="11" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B62" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C62" s="21" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B63" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B64" s="13"/>
+      <c r="C64" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B65" s="7"/>
+      <c r="C65" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B67" s="13"/>
+      <c r="C67" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B68" s="7"/>
+      <c r="C68" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B69" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B70" s="13"/>
+      <c r="C70" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B71" s="7"/>
+      <c r="C71" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
